--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H2">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I2">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J2">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N2">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O2">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P2">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q2">
-        <v>957.3456521478616</v>
+        <v>964.243729131437</v>
       </c>
       <c r="R2">
-        <v>957.3456521478616</v>
+        <v>3856.974916525748</v>
       </c>
       <c r="S2">
-        <v>0.09419536719878396</v>
+        <v>0.09071683917580868</v>
       </c>
       <c r="T2">
-        <v>0.09419536719878396</v>
+        <v>0.05435016429694762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H3">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I3">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J3">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N3">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O3">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P3">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q3">
-        <v>14.80642978702391</v>
+        <v>15.47460745678</v>
       </c>
       <c r="R3">
-        <v>14.80642978702391</v>
+        <v>92.84764474068001</v>
       </c>
       <c r="S3">
-        <v>0.001456837546149235</v>
+        <v>0.001455863733985587</v>
       </c>
       <c r="T3">
-        <v>0.001456837546149235</v>
+        <v>0.001308353011221066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H4">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I4">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J4">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N4">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O4">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P4">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q4">
-        <v>142.2142082905341</v>
+        <v>146.9618689145733</v>
       </c>
       <c r="R4">
-        <v>142.2142082905341</v>
+        <v>881.77121348744</v>
       </c>
       <c r="S4">
-        <v>0.01399277214113489</v>
+        <v>0.01382629290138981</v>
       </c>
       <c r="T4">
-        <v>0.01399277214113489</v>
+        <v>0.01242538812477686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H5">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I5">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J5">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N5">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O5">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P5">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q5">
-        <v>212.6016948339458</v>
+        <v>213.1697502024076</v>
       </c>
       <c r="R5">
-        <v>212.6016948339458</v>
+        <v>1279.018501214446</v>
       </c>
       <c r="S5">
-        <v>0.02091835343591691</v>
+        <v>0.02005518455762042</v>
       </c>
       <c r="T5">
-        <v>0.02091835343591691</v>
+        <v>0.01802315731481547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H6">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I6">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J6">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N6">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O6">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P6">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q6">
-        <v>577.25853818524</v>
+        <v>618.7390710105162</v>
       </c>
       <c r="R6">
-        <v>577.25853818524</v>
+        <v>3712.434426063098</v>
       </c>
       <c r="S6">
-        <v>0.0567977510014259</v>
+        <v>0.05821147817804385</v>
       </c>
       <c r="T6">
-        <v>0.0567977510014259</v>
+        <v>0.05231338688090916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.39627284167404</v>
+        <v>8.410387</v>
       </c>
       <c r="H7">
-        <v>8.39627284167404</v>
+        <v>16.820774</v>
       </c>
       <c r="I7">
-        <v>0.1907046802234431</v>
+        <v>0.1877733157930019</v>
       </c>
       <c r="J7">
-        <v>0.1907046802234431</v>
+        <v>0.1405219530469756</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N7">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O7">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P7">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q7">
-        <v>33.98234928812452</v>
+        <v>37.283447420288</v>
       </c>
       <c r="R7">
-        <v>33.98234928812452</v>
+        <v>149.133789681152</v>
       </c>
       <c r="S7">
-        <v>0.003343598900032226</v>
+        <v>0.003507657246153529</v>
       </c>
       <c r="T7">
-        <v>0.003343598900032226</v>
+        <v>0.002101503418305399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H8">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I8">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J8">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N8">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O8">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P8">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q8">
-        <v>746.4741472451</v>
+        <v>802.3254592854267</v>
       </c>
       <c r="R8">
-        <v>746.4741472451</v>
+        <v>4813.952755712561</v>
       </c>
       <c r="S8">
-        <v>0.07344725099695892</v>
+        <v>0.07548343583443888</v>
       </c>
       <c r="T8">
-        <v>0.07344725099695892</v>
+        <v>0.06783531883230354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H9">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I9">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J9">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N9">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O9">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P9">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q9">
-        <v>11.54506423486222</v>
+        <v>12.87607184773334</v>
       </c>
       <c r="R9">
-        <v>11.54506423486222</v>
+        <v>115.8846466296</v>
       </c>
       <c r="S9">
-        <v>0.001135944538418848</v>
+        <v>0.001211391377239396</v>
       </c>
       <c r="T9">
-        <v>0.001135944538418848</v>
+        <v>0.001632976547715236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H10">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I10">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J10">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N10">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O10">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P10">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q10">
-        <v>110.8891335346215</v>
+        <v>122.2836565196445</v>
       </c>
       <c r="R10">
-        <v>110.8891335346215</v>
+        <v>1100.5529086768</v>
       </c>
       <c r="S10">
-        <v>0.01091062839029366</v>
+        <v>0.01150454648257328</v>
       </c>
       <c r="T10">
-        <v>0.01091062839029366</v>
+        <v>0.01550832782131431</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H11">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I11">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J11">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N11">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O11">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P11">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q11">
-        <v>165.7725905977387</v>
+        <v>177.3737412749022</v>
       </c>
       <c r="R11">
-        <v>165.7725905977387</v>
+        <v>1596.36367147412</v>
       </c>
       <c r="S11">
-        <v>0.01631073375411951</v>
+        <v>0.01668746674219071</v>
       </c>
       <c r="T11">
-        <v>0.01631073375411951</v>
+        <v>0.02249499405623571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H12">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I12">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J12">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N12">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O12">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P12">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q12">
-        <v>450.1076221164332</v>
+        <v>514.8388258366177</v>
       </c>
       <c r="R12">
-        <v>450.1076221164332</v>
+        <v>4633.54943252956</v>
       </c>
       <c r="S12">
-        <v>0.04428708967247762</v>
+        <v>0.04843645807990137</v>
       </c>
       <c r="T12">
-        <v>0.04428708967247762</v>
+        <v>0.06529318400723616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.54685232597452</v>
+        <v>6.998093333333334</v>
       </c>
       <c r="H13">
-        <v>6.54685232597452</v>
+        <v>20.99428</v>
       </c>
       <c r="I13">
-        <v>0.1486987622767804</v>
+        <v>0.1562419409985416</v>
       </c>
       <c r="J13">
-        <v>0.1486987622767804</v>
+        <v>0.1753877216598391</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N13">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O13">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P13">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q13">
-        <v>26.49716447693228</v>
+        <v>31.02271570090667</v>
       </c>
       <c r="R13">
-        <v>26.49716447693228</v>
+        <v>186.13629420544</v>
       </c>
       <c r="S13">
-        <v>0.002607114924511839</v>
+        <v>0.00291864248219795</v>
       </c>
       <c r="T13">
-        <v>0.002607114924511839</v>
+        <v>0.002622920395034182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H14">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I14">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J14">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N14">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O14">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P14">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q14">
-        <v>1003.329819850179</v>
+        <v>1015.909490052763</v>
       </c>
       <c r="R14">
-        <v>1003.329819850179</v>
+        <v>6095.456940316575</v>
       </c>
       <c r="S14">
-        <v>0.09871985169644919</v>
+        <v>0.09557759624665585</v>
       </c>
       <c r="T14">
-        <v>0.09871985169644919</v>
+        <v>0.08589350289827427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H15">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I15">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J15">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N15">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O15">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P15">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q15">
-        <v>15.51762678141307</v>
+        <v>16.30376231157333</v>
       </c>
       <c r="R15">
-        <v>15.51762678141307</v>
+        <v>146.73386080416</v>
       </c>
       <c r="S15">
-        <v>0.001526813799644364</v>
+        <v>0.001533871301306644</v>
       </c>
       <c r="T15">
-        <v>0.001526813799644364</v>
+        <v>0.002067685068020924</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H16">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I16">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J16">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N16">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O16">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P16">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q16">
-        <v>149.0451809794602</v>
+        <v>154.8363269530311</v>
       </c>
       <c r="R16">
-        <v>149.0451809794602</v>
+        <v>1393.52694257728</v>
       </c>
       <c r="S16">
-        <v>0.01466488673142382</v>
+        <v>0.01456712835812116</v>
       </c>
       <c r="T16">
-        <v>0.01466488673142382</v>
+        <v>0.01963674120793122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H17">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I17">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J17">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N17">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O17">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P17">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q17">
-        <v>222.8135884870973</v>
+        <v>224.5917351392835</v>
       </c>
       <c r="R17">
-        <v>222.8135884870973</v>
+        <v>2021.325616253552</v>
       </c>
       <c r="S17">
-        <v>0.0219231243567389</v>
+        <v>0.02112977424825852</v>
       </c>
       <c r="T17">
-        <v>0.0219231243567389</v>
+        <v>0.02848330147813551</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H18">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I18">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J18">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N18">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O18">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P18">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q18">
-        <v>604.9859878978383</v>
+        <v>651.8921255233083</v>
       </c>
       <c r="R18">
-        <v>604.9859878978383</v>
+        <v>5867.029129709775</v>
       </c>
       <c r="S18">
-        <v>0.05952591642559039</v>
+        <v>0.0613305446791378</v>
       </c>
       <c r="T18">
-        <v>0.05952591642559039</v>
+        <v>0.08267463596105944</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.799570874688261</v>
+        <v>8.861029333333333</v>
       </c>
       <c r="H19">
-        <v>8.799570874688261</v>
+        <v>26.583088</v>
       </c>
       <c r="I19">
-        <v>0.1998647949399375</v>
+        <v>0.1978345181094583</v>
       </c>
       <c r="J19">
-        <v>0.1998647949399375</v>
+        <v>0.2220770247421206</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N19">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O19">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P19">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q19">
-        <v>35.61462290327902</v>
+        <v>39.28115569937066</v>
       </c>
       <c r="R19">
-        <v>35.61462290327902</v>
+        <v>235.6869341962239</v>
       </c>
       <c r="S19">
-        <v>0.003504201930090817</v>
+        <v>0.003695603275978339</v>
       </c>
       <c r="T19">
-        <v>0.003504201930090817</v>
+        <v>0.003321158128699264</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H20">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I20">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J20">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N20">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O20">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P20">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q20">
-        <v>1026.89882491099</v>
+        <v>1032.9085961043</v>
       </c>
       <c r="R20">
-        <v>1026.89882491099</v>
+        <v>6197.451576625801</v>
       </c>
       <c r="S20">
-        <v>0.1010388585057789</v>
+        <v>0.09717688605608912</v>
       </c>
       <c r="T20">
-        <v>0.1010388585057789</v>
+        <v>0.0873307497979267</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H21">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I21">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J21">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N21">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O21">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P21">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q21">
-        <v>15.88214801551485</v>
+        <v>16.576571442</v>
       </c>
       <c r="R21">
-        <v>15.88214801551485</v>
+        <v>149.189142978</v>
       </c>
       <c r="S21">
-        <v>0.001562679854314311</v>
+        <v>0.001559537407564759</v>
       </c>
       <c r="T21">
-        <v>0.001562679854314311</v>
+        <v>0.002102283423579786</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H22">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I22">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J22">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N22">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O22">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P22">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q22">
-        <v>152.5463692779591</v>
+        <v>157.427186836</v>
       </c>
       <c r="R22">
-        <v>152.5463692779591</v>
+        <v>1416.844681524</v>
       </c>
       <c r="S22">
-        <v>0.01500937643236859</v>
+        <v>0.01481087857627613</v>
       </c>
       <c r="T22">
-        <v>0.01500937643236859</v>
+        <v>0.0199653207217252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H23">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I23">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J23">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N23">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O23">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P23">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q23">
-        <v>228.0476545845787</v>
+        <v>228.3498048899</v>
       </c>
       <c r="R23">
-        <v>228.0476545845787</v>
+        <v>2055.1482440091</v>
       </c>
       <c r="S23">
-        <v>0.0224381157570642</v>
+        <v>0.02148333652600881</v>
       </c>
       <c r="T23">
-        <v>0.0224381157570642</v>
+        <v>0.02895990954929311</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H24">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I24">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J24">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N24">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O24">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P24">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q24">
-        <v>619.1975836546685</v>
+        <v>662.8001675137</v>
       </c>
       <c r="R24">
-        <v>619.1975836546685</v>
+        <v>5965.2015076233</v>
       </c>
       <c r="S24">
-        <v>0.06092422692900358</v>
+        <v>0.06235678219675866</v>
       </c>
       <c r="T24">
-        <v>0.06092422692900358</v>
+        <v>0.08405802190068809</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.00627970201033</v>
+        <v>9.009300000000001</v>
       </c>
       <c r="H25">
-        <v>9.00627970201033</v>
+        <v>27.0279</v>
       </c>
       <c r="I25">
-        <v>0.2045597758626821</v>
+        <v>0.2011448621774351</v>
       </c>
       <c r="J25">
-        <v>0.2045597758626821</v>
+        <v>0.2257930161096244</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N25">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O25">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P25">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q25">
-        <v>36.45123835199718</v>
+        <v>39.9384431232</v>
       </c>
       <c r="R25">
-        <v>36.45123835199718</v>
+        <v>239.6306587392</v>
       </c>
       <c r="S25">
-        <v>0.003586518384152501</v>
+        <v>0.003757441414737632</v>
       </c>
       <c r="T25">
-        <v>0.003586518384152501</v>
+        <v>0.003376730716411534</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H26">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I26">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J26">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N26">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O26">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P26">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q26">
-        <v>574.0349270500272</v>
+        <v>602.3059135203537</v>
       </c>
       <c r="R26">
-        <v>574.0349270500272</v>
+        <v>3613.835481122122</v>
       </c>
       <c r="S26">
-        <v>0.05648057273471919</v>
+        <v>0.05666543327243824</v>
       </c>
       <c r="T26">
-        <v>0.05648057273471919</v>
+        <v>0.05092399001600168</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H27">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I27">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J27">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N27">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O27">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P27">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q27">
-        <v>8.878097292860417</v>
+        <v>9.666070205113334</v>
       </c>
       <c r="R27">
-        <v>8.878097292860417</v>
+        <v>86.99463184602001</v>
       </c>
       <c r="S27">
-        <v>0.0008735357314793073</v>
+        <v>0.0009093917956295203</v>
       </c>
       <c r="T27">
-        <v>0.0008735357314793073</v>
+        <v>0.001225875883590827</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H28">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I28">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J28">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N28">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O28">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P28">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q28">
-        <v>85.27319521259548</v>
+        <v>91.79837009568445</v>
       </c>
       <c r="R28">
-        <v>85.27319521259548</v>
+        <v>826.1853308611601</v>
       </c>
       <c r="S28">
-        <v>0.008390219266409147</v>
+        <v>0.008636465786583735</v>
       </c>
       <c r="T28">
-        <v>0.008390219266409147</v>
+        <v>0.01164210539188045</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H29">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I29">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J29">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N29">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O29">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P29">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q29">
-        <v>127.4783022317075</v>
+        <v>133.1545098522132</v>
       </c>
       <c r="R29">
-        <v>127.4783022317075</v>
+        <v>1198.390588669919</v>
       </c>
       <c r="S29">
-        <v>0.01254287358139967</v>
+        <v>0.01252728526083088</v>
       </c>
       <c r="T29">
-        <v>0.01254287358139967</v>
+        <v>0.0168869973997123</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H30">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I30">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J30">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N30">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O30">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P30">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q30">
-        <v>346.1305351026864</v>
+        <v>386.4896292677107</v>
       </c>
       <c r="R30">
-        <v>346.1305351026864</v>
+        <v>3478.406663409397</v>
       </c>
       <c r="S30">
-        <v>0.03405655290705124</v>
+        <v>0.03636126062544257</v>
       </c>
       <c r="T30">
-        <v>0.03405655290705124</v>
+        <v>0.04901560879690415</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.03449705688753</v>
+        <v>5.253470333333333</v>
       </c>
       <c r="H31">
-        <v>5.03449705688753</v>
+        <v>15.760411</v>
       </c>
       <c r="I31">
-        <v>0.1143486127027975</v>
+        <v>0.1172908623479712</v>
       </c>
       <c r="J31">
-        <v>0.1143486127027975</v>
+        <v>0.1316636044538163</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N31">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O31">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P31">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q31">
-        <v>20.3761884235144</v>
+        <v>23.28876007095467</v>
       </c>
       <c r="R31">
-        <v>20.3761884235144</v>
+        <v>139.732560425728</v>
       </c>
       <c r="S31">
-        <v>0.002004858481738953</v>
+        <v>0.002191025607046294</v>
       </c>
       <c r="T31">
-        <v>0.002004858481738953</v>
+        <v>0.001969026965726906</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H32">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I32">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J32">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>114.020312369576</v>
+        <v>114.649151</v>
       </c>
       <c r="N32">
-        <v>114.020312369576</v>
+        <v>229.298302</v>
       </c>
       <c r="O32">
-        <v>0.4939331698016955</v>
+        <v>0.4831189074586796</v>
       </c>
       <c r="P32">
-        <v>0.4939331698016955</v>
+        <v>0.3867734764459096</v>
       </c>
       <c r="Q32">
-        <v>711.959403971406</v>
+        <v>717.4546099794526</v>
       </c>
       <c r="R32">
-        <v>711.959403971406</v>
+        <v>2869.81843991781</v>
       </c>
       <c r="S32">
-        <v>0.07005126866900531</v>
+        <v>0.06749871687324886</v>
       </c>
       <c r="T32">
-        <v>0.07005126866900531</v>
+        <v>0.04043975060445577</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H33">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I33">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J33">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.76345267313536</v>
+        <v>1.83994</v>
       </c>
       <c r="N33">
-        <v>1.76345267313536</v>
+        <v>5.51982</v>
       </c>
       <c r="O33">
-        <v>0.007639233313216545</v>
+        <v>0.007753304711253579</v>
       </c>
       <c r="P33">
-        <v>0.007639233313216545</v>
+        <v>0.009310666289869257</v>
       </c>
       <c r="Q33">
-        <v>11.01125481947232</v>
+        <v>11.51402713035</v>
       </c>
       <c r="R33">
-        <v>11.01125481947232</v>
+        <v>69.08416278210001</v>
       </c>
       <c r="S33">
-        <v>0.00108342184321048</v>
+        <v>0.001083249095527672</v>
       </c>
       <c r="T33">
-        <v>0.00108342184321048</v>
+        <v>0.0009734923557414178</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H34">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I34">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J34">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.9377783419172</v>
+        <v>17.47385333333333</v>
       </c>
       <c r="N34">
-        <v>16.9377783419172</v>
+        <v>52.42156</v>
       </c>
       <c r="O34">
-        <v>0.07337403636208595</v>
+        <v>0.07363289529717675</v>
       </c>
       <c r="P34">
-        <v>0.07337403636208595</v>
+        <v>0.08842311009314772</v>
       </c>
       <c r="Q34">
-        <v>105.761949974528</v>
+        <v>109.3483599203</v>
       </c>
       <c r="R34">
-        <v>105.761949974528</v>
+        <v>656.0901595218</v>
       </c>
       <c r="S34">
-        <v>0.01040615340045585</v>
+        <v>0.01028758319223265</v>
       </c>
       <c r="T34">
-        <v>0.01040615340045585</v>
+        <v>0.009245226825519688</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H35">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I35">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J35">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.3209607218478</v>
+        <v>25.34600966666666</v>
       </c>
       <c r="N35">
-        <v>25.3209607218478</v>
+        <v>76.03802899999999</v>
       </c>
       <c r="O35">
-        <v>0.1096897748466765</v>
+        <v>0.1068052959118479</v>
       </c>
       <c r="P35">
-        <v>0.1096897748466765</v>
+        <v>0.1282586594052706</v>
       </c>
       <c r="Q35">
-        <v>158.1077593006175</v>
+        <v>158.6109563073325</v>
       </c>
       <c r="R35">
-        <v>158.1077593006175</v>
+        <v>951.665737843995</v>
       </c>
       <c r="S35">
-        <v>0.01555657396143728</v>
+        <v>0.01492224857693854</v>
       </c>
       <c r="T35">
-        <v>0.01555657396143728</v>
+        <v>0.01341029960707854</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H36">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I36">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J36">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>68.7517603430032</v>
+        <v>73.56844233333332</v>
       </c>
       <c r="N36">
-        <v>68.7517603430032</v>
+        <v>220.705327</v>
       </c>
       <c r="O36">
-        <v>0.2978309233673638</v>
+        <v>0.3100093212510301</v>
       </c>
       <c r="P36">
-        <v>0.2978309233673638</v>
+        <v>0.3722791047703496</v>
       </c>
       <c r="Q36">
-        <v>429.2959850621353</v>
+        <v>460.3786215656975</v>
       </c>
       <c r="R36">
-        <v>429.2959850621353</v>
+        <v>2762.271729394185</v>
       </c>
       <c r="S36">
-        <v>0.04223938643181505</v>
+        <v>0.04331279749174594</v>
       </c>
       <c r="T36">
-        <v>0.04223938643181505</v>
+        <v>0.03892426722355256</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.24414535599341</v>
+        <v>6.2578275</v>
       </c>
       <c r="H37">
-        <v>6.24414535599341</v>
+        <v>12.515655</v>
       </c>
       <c r="I37">
-        <v>0.1418233739943595</v>
+        <v>0.1397145005735921</v>
       </c>
       <c r="J37">
-        <v>0.1418233739943595</v>
+        <v>0.1045566799876239</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.04731360318076</v>
+        <v>4.433024</v>
       </c>
       <c r="N37">
-        <v>4.04731360318076</v>
+        <v>8.866047999999999</v>
       </c>
       <c r="O37">
-        <v>0.01753286230896184</v>
+        <v>0.01868027537001216</v>
       </c>
       <c r="P37">
-        <v>0.01753286230896184</v>
+        <v>0.01495498299545325</v>
       </c>
       <c r="Q37">
-        <v>25.2720144395501</v>
+        <v>27.74109949536</v>
       </c>
       <c r="R37">
-        <v>25.2720144395501</v>
+        <v>110.96439798144</v>
       </c>
       <c r="S37">
-        <v>0.002486569688435504</v>
+        <v>0.002609905343898422</v>
       </c>
       <c r="T37">
-        <v>0.002486569688435504</v>
+        <v>0.001563643371275963</v>
       </c>
     </row>
   </sheetData>
